--- a/atomica/library/hypertension_databook.xlsx
+++ b/atomica/library/hypertension_databook.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21B7CB11-10E2-5E41-8CF8-95F016A42DFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA3DDB-50F3-40CB-A622-81D1855FF50C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20920" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="20925" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,1457 +33,573 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{9C06BABC-DEFA-5E49-9F5C-9B265F4FC734}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{87E189D8-3270-6145-A6D0-94262A18FAE7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{ACF2EC0F-B19F-1443-B142-AA8B4B8E2426}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{6573B444-DB65-F54C-9739-08C53ECF1605}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{444B7108-118F-9645-AAE4-BBE2AF552930}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{6254D5D8-0AE9-954A-A9C6-5AEFF567B711}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{85F6260C-73D0-9540-B169-092B53FFE503}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{D073D92A-91F2-0645-AA22-12D3D4B499D2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{DA37402C-DD86-1E48-A608-70F787688DB3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{1736AF46-E5C6-1846-B6D8-3A310E79DDE3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{9103E852-9D8A-1946-A74B-DA044EDF6C6E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{69FAC7C7-0BA1-EA4A-83D7-A6C9FBA08912}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{8B2B3F49-6289-9D48-AB17-9872A68838C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{9EC8907B-9C8C-6C40-B9AD-2CF9C31F501E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{46FE1865-ECED-B347-A559-21B57DF521E9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{EF45E56E-F987-8E4C-8E34-BD19B4A78187}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{45676FCF-2F74-C84B-9AB1-56D02BEE8A44}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{F12EE566-141B-E147-A710-801BF3657119}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{5F903948-F64C-5544-9356-5211737AE516}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{4524B1BA-2CCB-4A48-9068-FD43EFAC10F0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{28E560AC-7404-2242-9C68-AEA1AC6BEC4D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{494FF6CA-50EF-2C4A-A69A-919D1565DF1A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{625D01FD-CB02-704F-8AA9-26F6B9587F08}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{19BFE41E-D8B8-2A45-99F5-CD73D5FE075B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{86CF299E-F8AD-A14D-AD8C-BE20D5C297C4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{080CBDDA-CD6E-CA46-9564-C0E2E7400FCF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{82D3DB02-8EDE-9A44-94D4-5268BE5224D5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{32E46586-64EC-A54E-B8AE-32E0968F53A3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{CA793CB1-CEB9-814F-99B3-BB67D651EA9A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{492BC608-053A-0B4E-B1D6-983B8325D015}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{42BDC5CC-3098-5E4C-B266-5129C5939E64}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{5F7D6D9B-4DCE-5446-87D0-A6BEA9F68536}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{55483788-2A37-BB42-B25A-41DB1378D502}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{32F904EA-926E-9943-8F4B-BC8B012EF7E4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{73AC43A3-A8DC-874F-8FB6-E367C91CE536}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{B5EF81EE-D358-D845-9DE9-A2E9020B8D1C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{9C30E552-016A-C34F-AEDD-AF11F4DE9F71}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Does this make sense??</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{BAE8BC2C-E678-1642-88BC-4F6EC541926C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Does this make sense??</t>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Placeholder value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Does this make sense??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Robyn Stuart:
+Does this make sense??</t>
         </r>
       </text>
     </comment>
@@ -1491,6 +614,30 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>m_rural</t>
+  </si>
+  <si>
+    <t>Rural males</t>
+  </si>
+  <si>
+    <t>f_rural</t>
+  </si>
+  <si>
+    <t>Rural females</t>
+  </si>
+  <si>
+    <t>m_urban</t>
+  </si>
+  <si>
+    <t>Urban males</t>
+  </si>
+  <si>
+    <t>f_urban</t>
+  </si>
+  <si>
+    <t>Urban females</t>
   </si>
   <si>
     <t>All people with condition</t>
@@ -1543,36 +690,12 @@
   <si>
     <t>Treatment failure rate</t>
   </si>
-  <si>
-    <t>m_rural</t>
-  </si>
-  <si>
-    <t>f_rural</t>
-  </si>
-  <si>
-    <t>m_urban</t>
-  </si>
-  <si>
-    <t>f_urban</t>
-  </si>
-  <si>
-    <t>Rural males</t>
-  </si>
-  <si>
-    <t>Rural females</t>
-  </si>
-  <si>
-    <t>Urban males</t>
-  </si>
-  <si>
-    <t>Urban females</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,25 +710,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2570,12 +1674,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2583,36 +1687,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2631,23 +1735,23 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -2660,17 +1764,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>787</v>
@@ -2678,17 +1782,17 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>1101</v>
@@ -2696,17 +1800,17 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>859</v>
@@ -2714,17 +1818,17 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>1349</v>
@@ -2732,15 +1836,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -2753,17 +1857,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>214</v>
@@ -2771,17 +1875,17 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>483</v>
@@ -2789,17 +1893,17 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>507</v>
@@ -2807,17 +1911,17 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>1073</v>
@@ -2825,15 +1929,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -2846,17 +1950,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>172</v>
@@ -2864,17 +1968,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>482</v>
@@ -2882,17 +1986,17 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>295</v>
@@ -2900,17 +2004,17 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>759</v>
@@ -2918,15 +2022,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -2939,17 +2043,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
         <v>127</v>
@@ -2957,17 +2061,17 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>382</v>
@@ -2975,17 +2079,17 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>180</v>
@@ -2993,17 +2097,17 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
         <v>500</v>
@@ -3011,15 +2115,15 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -3032,17 +2136,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
         <v>41</v>
@@ -3050,17 +2154,17 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
         <v>148</v>
@@ -3068,17 +2172,17 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -3086,17 +2190,17 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
         <v>201</v>
@@ -3104,15 +2208,15 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -3125,17 +2229,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
         <v>120</v>
@@ -3143,17 +2247,17 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
         <v>100</v>
@@ -3161,17 +2265,17 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
         <v>200</v>
@@ -3179,17 +2283,17 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
         <v>180</v>
@@ -3197,15 +2301,15 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -3218,17 +2322,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
         <v>15</v>
@@ -3236,17 +2340,17 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
         <v>13</v>
@@ -3254,17 +2358,17 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>30</v>
@@ -3272,17 +2376,17 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
         <v>20</v>
@@ -3290,15 +2394,15 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -3311,17 +2415,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
         <f>ROUND(E38*0.7,0)</f>
@@ -3330,17 +2434,17 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
         <f>ROUND(E39*0.7,0)</f>
@@ -3349,17 +2453,17 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
         <f>ROUND(E40*0.7,0)</f>
@@ -3368,17 +2472,17 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
         <f>ROUND(E41*0.7,0)</f>
@@ -3387,15 +2491,15 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -3408,17 +2512,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E50" s="5">
         <v>0.1</v>
@@ -3426,17 +2530,17 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E51" s="5">
         <v>0.1</v>
@@ -3444,17 +2548,17 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E52" s="5">
         <v>0.1</v>
@@ -3462,17 +2566,17 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E53" s="5">
         <v>0.1</v>
@@ -3480,15 +2584,15 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -3501,87 +2605,87 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4">
         <v>0.2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C57" s="4">
         <v>0.2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C58" s="4">
         <v>0.2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4">
         <v>0.2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -3594,73 +2698,73 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C62" s="4">
         <v>0.16</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C63" s="4">
         <v>0.16</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4">
         <v>0.16</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C65" s="4">
         <v>0.16</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4020,13 +3124,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B50:B53" xr:uid="{00000000-0002-0000-0100-000020000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B50:B53" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56:B59" xr:uid="{00000000-0002-0000-0100-000024000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56:B59" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"duration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/hypertension_databook.xlsx
+++ b/atomica/library/hypertension_databook.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA3DDB-50F3-40CB-A622-81D1855FF50C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA6418-1C3C-364F-833D-B9DC2DD4301D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="20925" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20920" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -679,9 +685,6 @@
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Time after initiating treatment to achieve BP control (years)</t>
   </si>
   <si>
@@ -689,6 +692,9 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -802,12 +808,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -848,14 +895,14 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -884,443 +931,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -1345,9 +955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1385,9 +995,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,26 +1030,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,26 +1065,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1674,12 +1250,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1731,19 +1307,19 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B53" sqref="B50:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1340,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -1782,7 +1358,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -1800,7 +1376,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -1818,7 +1394,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -1836,7 +1412,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1433,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -1875,7 +1451,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -1893,7 +1469,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -1911,7 +1487,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -1929,7 +1505,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1950,7 +1526,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -1968,7 +1544,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -1986,7 +1562,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2004,7 +1580,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2022,7 +1598,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2043,7 +1619,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2061,7 +1637,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2079,7 +1655,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2097,7 +1673,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2115,7 +1691,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +1712,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2154,7 +1730,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2172,7 +1748,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2190,7 +1766,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2208,7 +1784,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +1805,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2247,7 +1823,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2265,7 +1841,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2283,7 +1859,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2301,7 +1877,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2322,7 +1898,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2340,7 +1916,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2358,7 +1934,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2376,7 +1952,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2394,7 +1970,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -2415,7 +1991,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2434,7 +2010,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2453,7 +2029,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2472,7 +2048,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2491,7 +2067,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2512,13 +2088,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
@@ -2530,13 +2106,13 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
@@ -2548,13 +2124,13 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
@@ -2566,13 +2142,13 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
@@ -2584,9 +2160,9 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
@@ -2605,13 +2181,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="4">
         <v>0.2</v>
@@ -2623,13 +2199,13 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4">
         <v>0.2</v>
@@ -2641,13 +2217,13 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4">
         <v>0.2</v>
@@ -2659,13 +2235,13 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" s="4">
         <v>0.2</v>
@@ -2677,9 +2253,9 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
@@ -2698,13 +2274,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C62" s="4">
         <v>0.16</v>
@@ -2716,13 +2292,13 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C63" s="4">
         <v>0.16</v>
@@ -2734,13 +2310,13 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4">
         <v>0.16</v>
@@ -2752,13 +2328,13 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4">
         <v>0.16</v>
@@ -2771,367 +2347,103 @@
       <c r="G65" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="87" priority="13">
-      <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="14">
-      <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="85" priority="15">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="16">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="83" priority="17">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="18">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="81" priority="19">
-      <formula>COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="20">
-      <formula>AND(COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="79" priority="21">
-      <formula>COUNTIF(E16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="22">
-      <formula>AND(COUNTIF(E16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="77" priority="23">
-      <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="24">
-      <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="75" priority="1">
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="73" priority="25">
+  <conditionalFormatting sqref="C8:C11">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C23">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>COUNTIF(E20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>AND(COUNTIF(E20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="71" priority="27">
-      <formula>COUNTIF(E21:G21,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C26:C29">
+    <cfRule type="expression" dxfId="13" priority="34">
+      <formula>AND(COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="28">
-      <formula>AND(COUNTIF(E21:G21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
+    <cfRule type="expression" dxfId="12" priority="33">
+      <formula>COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="69" priority="29">
-      <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C32:C35">
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>AND(COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="30">
-      <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
+    <cfRule type="expression" dxfId="10" priority="41">
+      <formula>COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="67" priority="31">
-      <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C38:C41">
+    <cfRule type="expression" dxfId="9" priority="50">
+      <formula>AND(COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
-      <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+    <cfRule type="expression" dxfId="8" priority="49">
+      <formula>COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="65" priority="33">
-      <formula>COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="34">
-      <formula>AND(COUNTIF(E26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="63" priority="35">
-      <formula>COUNTIF(E27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="36">
-      <formula>AND(COUNTIF(E27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="61" priority="37">
-      <formula>COUNTIF(E28:G28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="38">
-      <formula>AND(COUNTIF(E28:G28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="59" priority="39">
-      <formula>COUNTIF(E29:G29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="40">
-      <formula>AND(COUNTIF(E29:G29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="57" priority="3">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="55" priority="41">
-      <formula>COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="42">
-      <formula>AND(COUNTIF(E32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="53" priority="43">
-      <formula>COUNTIF(E33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
-      <formula>AND(COUNTIF(E33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="51" priority="45">
-      <formula>COUNTIF(E34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
-      <formula>AND(COUNTIF(E34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="49" priority="47">
-      <formula>COUNTIF(E35:G35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>AND(COUNTIF(E35:G35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
-      <formula>AND(COUNTIF(E38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="45" priority="51">
-      <formula>COUNTIF(E39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="52">
-      <formula>AND(COUNTIF(E39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="43" priority="5">
-      <formula>COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
-      <formula>AND(COUNTIF(E4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="41" priority="53">
-      <formula>COUNTIF(E40:G40,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="54">
-      <formula>AND(COUNTIF(E40:G40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="39" priority="55">
-      <formula>COUNTIF(E41:G41,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="56">
-      <formula>AND(COUNTIF(E41:G41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="37" priority="57">
+  <conditionalFormatting sqref="C44:C47">
+    <cfRule type="expression" dxfId="7" priority="57">
       <formula>COUNTIF(E44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="58">
+    <cfRule type="expression" dxfId="6" priority="58">
       <formula>AND(COUNTIF(E44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="35" priority="59">
-      <formula>COUNTIF(E45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C50:C53">
+    <cfRule type="expression" dxfId="5" priority="66">
+      <formula>AND(COUNTIF(E50:G50,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="60">
-      <formula>AND(COUNTIF(E45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
+    <cfRule type="expression" dxfId="4" priority="65">
+      <formula>COUNTIF(E50:G50,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="33" priority="61">
-      <formula>COUNTIF(E46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C56:C59">
+    <cfRule type="expression" dxfId="3" priority="74">
+      <formula>AND(COUNTIF(E56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="62">
-      <formula>AND(COUNTIF(E46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
+    <cfRule type="expression" dxfId="2" priority="73">
+      <formula>COUNTIF(E56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="31" priority="63">
-      <formula>COUNTIF(E47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="64">
-      <formula>AND(COUNTIF(E47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="7">
-      <formula>COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
-      <formula>AND(COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="27" priority="65">
-      <formula>COUNTIF(E50:G50,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="66">
-      <formula>AND(COUNTIF(E50:G50,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="25" priority="67">
-      <formula>COUNTIF(E51:G51,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="68">
-      <formula>AND(COUNTIF(E51:G51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="23" priority="69">
-      <formula>COUNTIF(E52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="70">
-      <formula>AND(COUNTIF(E52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="21" priority="71">
-      <formula>COUNTIF(E53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="72">
-      <formula>AND(COUNTIF(E53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="19" priority="73">
-      <formula>COUNTIF(E56:G56,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="74">
-      <formula>AND(COUNTIF(E56:G56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="17" priority="75">
-      <formula>COUNTIF(E57:G57,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="76">
-      <formula>AND(COUNTIF(E57:G57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="15" priority="77">
-      <formula>COUNTIF(E58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="78">
-      <formula>AND(COUNTIF(E58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="13" priority="79">
-      <formula>COUNTIF(E59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="80">
-      <formula>AND(COUNTIF(E59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="11" priority="81">
-      <formula>COUNTIF(E62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="82">
+  <conditionalFormatting sqref="C62:C65">
+    <cfRule type="expression" dxfId="1" priority="82">
       <formula>AND(COUNTIF(E62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="9" priority="83">
-      <formula>COUNTIF(E63:G63,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="84">
-      <formula>AND(COUNTIF(E63:G63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="7" priority="85">
-      <formula>COUNTIF(E64:G64,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="86">
-      <formula>AND(COUNTIF(E64:G64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="5" priority="87">
-      <formula>COUNTIF(E65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="88">
-      <formula>AND(COUNTIF(E65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND(COUNTIF(E9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>COUNTIF(E62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B50:B53" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"probability"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56:B59" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B50:B53" xr:uid="{251B3872-987E-5240-B8D2-9DB9C23DBC3C}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
